--- a/Docs/milestone.xlsx
+++ b/Docs/milestone.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u6118739\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="14580" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Project Timeline" sheetId="1" r:id="rId1"/>
@@ -15,12 +20,12 @@
     <definedName name="ProjectEnd">'Project Timeline'!#REF!</definedName>
     <definedName name="ProjectStart">'Project Timeline'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Project Milestones</t>
   </si>
@@ -64,27 +69,15 @@
     <t>Semester1 Week4</t>
   </si>
   <si>
-    <t>Web Crawler Finish</t>
-  </si>
-  <si>
     <t>Semester1 Week7</t>
   </si>
   <si>
-    <t>Server Development Finish</t>
-  </si>
-  <si>
-    <t>Semester1 Week9</t>
-  </si>
-  <si>
     <t>Unit Test Finish</t>
   </si>
   <si>
     <t>Semester1 Week10</t>
   </si>
   <si>
-    <t>Project Showcase</t>
-  </si>
-  <si>
     <t>Web Development Finish</t>
   </si>
   <si>
@@ -122,69 +115,84 @@
   </si>
   <si>
     <t>Semester2 Week10</t>
+  </si>
+  <si>
+    <t>Design Approval</t>
+  </si>
+  <si>
+    <t>Preliminary Front-end prototype</t>
+  </si>
+  <si>
+    <t>First Deliverable</t>
+  </si>
+  <si>
+    <t>Semester1 Week6</t>
+  </si>
+  <si>
+    <t>Second Deliverable</t>
+  </si>
+  <si>
+    <t>Final prototype</t>
+  </si>
+  <si>
+    <t>Showcase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="28"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="28"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -196,154 +204,28 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
-      <color theme="3" tint="0.399945066682943"/>
-      <name val="宋体"/>
+      <color theme="3" tint="0.39991454817346722"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="6" tint="-0.249946592608417"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="6" tint="-0.249946592608417"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="28"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,79 +246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,122 +256,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -580,215 +276,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -840,14 +336,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
@@ -855,123 +345,80 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="3">
+    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1025,14 +472,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1050,10 +500,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0599298084801653"/>
-          <c:y val="0.0448028673835125"/>
-          <c:w val="0.877744358810272"/>
-          <c:h val="0.921146953405018"/>
+          <c:x val="5.9929808480165297E-2"/>
+          <c:y val="4.4802867383512503E-2"/>
+          <c:w val="0.87774435881027202"/>
+          <c:h val="0.92114695340501795"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1091,25 +541,31 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.71639158189219e-8"/>
-                  <c:y val="-8.21218812090748e-18"/>
+                  <c:x val="4.7163915818921903E-8"/>
+                  <c:y val="-8.2121881209074797E-18"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{46a7eb2f-eb04-49df-bdbc-d7f20d53d9d0}" type="CELLRANGE">
+                    <a:fld id="{E548EC9F-1ED8-4274-8EC5-8FA039CDFB56}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{8a48bae9-6d61-4bd3-9e02-53dacf402b92}" type="CATEGORYNAME">
+                    <a:fld id="{F3A19908-B1F9-4AD7-AF11-65B656A7CC5C}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1128,31 +584,40 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-519F-4A21-A277-0CC0803C2074}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.71639158093134e-8"/>
+                  <c:x val="4.71639158093134E-8"/>
                   <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6c5c65b8-76d0-49f2-aa73-49f9753613cf}" type="CELLRANGE">
+                    <a:fld id="{08550AE9-89B1-4DDA-B266-7AFE3DE95A36}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{73b7f04c-ea87-4e97-83a0-d06e6a480012}" type="CATEGORYNAME">
+                    <a:fld id="{A91D8513-47B5-439B-B138-A62A6A5FAD2B}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1171,31 +636,40 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-519F-4A21-A277-0CC0803C2074}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.71639158093134e-8"/>
+                  <c:x val="4.71639158093134E-8"/>
                   <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ca2f558c-4090-459a-bcf8-11b9f28f2ea8}" type="CELLRANGE">
+                    <a:fld id="{68FE3985-8345-4F2D-9F01-544234817145}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{5d0a0542-178c-4ec3-af6f-926feea8e558}" type="CATEGORYNAME">
+                    <a:fld id="{EBC6266C-E330-4962-B188-D618B3E13E89}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1214,31 +688,40 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-519F-4A21-A277-0CC0803C2074}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.71639158202946e-8"/>
-                  <c:y val="-3.28487524836299e-17"/>
+                  <c:x val="4.7163915820294599E-8"/>
+                  <c:y val="-3.28487524836299E-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48d4be9d-16ab-48b4-a1ed-c836738afa4b}" type="CELLRANGE">
+                    <a:fld id="{38800C07-F0B3-4B97-BA8E-BC82807CFF13}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{2fe2d305-80e2-4e17-8f2c-44e8b3f79a9b}" type="CATEGORYNAME">
+                    <a:fld id="{6781C7F3-54FC-428A-9732-E2C42CF8B6DC}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1257,31 +740,40 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-519F-4A21-A277-0CC0803C2074}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.71639158202946e-8"/>
-                  <c:y val="1.3139500993452e-16"/>
+                  <c:x val="4.7163915820294599E-8"/>
+                  <c:y val="1.3139500993452E-16"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13d20b0d-79a7-47ce-aad6-f2f87f85d661}" type="CELLRANGE">
+                    <a:fld id="{C5D539CE-AD55-4958-B97A-DDA0EF584F7D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{3c9e0bae-59b0-48c9-8e93-de73e32145f9}" type="CATEGORYNAME">
+                    <a:fld id="{8660BB96-1086-485F-BF6B-0E8D37B37E88}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1300,31 +792,40 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-519F-4A21-A277-0CC0803C2074}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.71639158202946e-8"/>
-                  <c:y val="-3.28487524836299e-17"/>
+                  <c:x val="4.7163915820294599E-8"/>
+                  <c:y val="-3.28487524836299E-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{feebf7d7-18b0-45bd-a28b-df62cc3d9347}" type="CELLRANGE">
+                    <a:fld id="{662CCC29-2BE1-4C05-8CC8-0029C749C399}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{419c5fab-ffc9-4adf-80f5-733955d36916}" type="CATEGORYNAME">
+                    <a:fld id="{694E4EBD-0BD5-41F2-9A4F-11728CAD0312}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1343,31 +844,40 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-519F-4A21-A277-0CC0803C2074}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.71639158202946e-8"/>
-                  <c:y val="1.3139500993452e-16"/>
+                  <c:x val="4.7163915820294599E-8"/>
+                  <c:y val="1.3139500993452E-16"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{f1d9b5f8-0eb6-46df-806e-45b5670d449a}" type="CELLRANGE">
+                    <a:fld id="{B2A43AB7-EFFA-4EC5-BBAF-5C852F595A10}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{ea2b5be6-66a3-4b55-a356-19ed70889968}" type="CATEGORYNAME">
+                    <a:fld id="{03F9183C-F1D7-4064-AF63-BB6DB1F76BCC}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1386,31 +896,40 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-519F-4A21-A277-0CC0803C2074}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.71639158202946e-8"/>
-                  <c:y val="-3.28487524836299e-17"/>
+                  <c:x val="4.7163915820294599E-8"/>
+                  <c:y val="-3.28487524836299E-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6c2c4990-3ea6-46e1-85bf-8908fb60e84b}" type="CELLRANGE">
+                    <a:fld id="{67BB436D-252D-44D3-8A66-C2423E20A13D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{b541bf07-92ce-4990-8daf-b0b5e0f2de76}" type="CATEGORYNAME">
+                    <a:fld id="{A3BD66D6-0D51-43D0-AB46-5A37B928E274}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1429,43 +948,58 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-519F-4A21-A277-0CC0803C2074}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.71639158202946e-8"/>
+                  <c:x val="4.7163915820294599E-8"/>
                   <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{378cfaab-1510-466c-b054-3c2406066804}" type="CELLRANGE">
+                    <a:fld id="{378CFAAB-1510-466C-B054-3C2406066804}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
+                      <a:rPr lang="en-US"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{326edd2a-a27a-4656-b193-2eb9b3cff5e7}" type="CATEGORYNAME">
+                    <a:fld id="{326EDD2A-A27A-4656-B193-2EB9B3CFF5E7}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                   <a:p>
-                    <a:fld id="{16439dda-b820-46e3-9bf3-492bd1931343}" type="CELLRANGE">
+                    <a:fld id="{16439DDA-B820-46E3-9BF3-492BD1931343}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
+                      <a:rPr lang="en-US"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{ac6f246b-e41d-48ad-ad46-9e41ab594ab3}" type="CATEGORYNAME">
+                    <a:fld id="{AC6F246B-E41D-48AD-AD46-9E41AB594AB3}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1484,43 +1018,58 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-519F-4A21-A277-0CC0803C2074}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.71639158202946e-8"/>
-                  <c:y val="-1.6424376241815e-17"/>
+                  <c:x val="4.7163915820294599E-8"/>
+                  <c:y val="-1.6424376241814999E-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24254bc2-ace1-42c2-992c-71ffaeb4e6f5}" type="CELLRANGE">
+                    <a:fld id="{24254BC2-ACE1-42C2-992C-71FFAEB4E6F5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
+                      <a:rPr lang="en-US"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{7563d612-78fa-40c4-80e5-cee87d022849}" type="CATEGORYNAME">
+                    <a:fld id="{7563D612-78FA-40C4-80E5-CEE87D022849}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                   <a:p>
-                    <a:fld id="{db5f89bc-602b-4fd8-841c-b8e83e848b78}" type="CELLRANGE">
+                    <a:fld id="{DB5F89BC-602B-4FD8-841C-B8E83E848B78}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
+                      <a:rPr lang="en-US"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{f79f3713-2bce-44ea-959b-1145ba883512}" type="CATEGORYNAME">
+                    <a:fld id="{F79F3713-2BCE-44EA-959B-1145BA883512}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1539,43 +1088,56 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-519F-4A21-A277-0CC0803C2074}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.71639159081442e-8"/>
-                  <c:y val="1.3139500993452e-16"/>
+                  <c:x val="4.7163915908144198E-8"/>
+                  <c:y val="1.3139500993452E-16"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{eb4f570b-c2cd-45b5-8007-1a0488d07584}" type="CELLRANGE">
+                    <a:fld id="{EB4F570B-C2CD-45B5-8007-1A0488D07584}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{57a200c6-12d9-48f3-a28c-64b847f553e6}" type="CATEGORYNAME">
+                    <a:fld id="{57A200C6-12D9-48F3-A28C-64B847F553E6}" type="CATEGORYNAME">
+                      <a:rPr lang="en-AU"/>
+                      <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
+                    <a:endParaRPr/>
                   </a:p>
                   <a:p>
-                    <a:fld id="{23ed5f18-2c36-4ab9-b7b7-5fa4ae293411}" type="CELLRANGE">
+                    <a:fld id="{23ED5F18-2C36-4AB9-B7B7-5FA4AE293411}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{05a703b4-b679-4801-a481-468f0309a806}" type="CATEGORYNAME">
+                    <a:fld id="{05A703B4-B679-4801-A481-468F0309A806}" type="CATEGORYNAME">
+                      <a:rPr lang="en-AU"/>
+                      <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1590,9 +1152,11 @@
 </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-519F-4A21-A277-0CC0803C2074}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1617,6 +1181,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1631,21 +1196,8 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:prstDash val="solid"/>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1674,7 +1226,7 @@
             <c:strRef>
               <c:f>'Project Timeline'!$C$17:$C$27</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Bootcamp</c:v>
                 </c:pt>
@@ -1688,16 +1240,22 @@
                   <c:v>Preliminary Design</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Web Crawler Finish</c:v>
+                  <c:v>Design Approval</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Server Development Finish</c:v>
+                  <c:v>Preliminary Front-end prototype</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Unit Test Finish</c:v>
+                  <c:v>First Deliverable</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Project Showcase</c:v>
+                  <c:v>Second Deliverable</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Final prototype</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Showcase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1715,7 +1273,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25</c:v>
@@ -1724,12 +1282,18 @@
                   <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -1748,25 +1312,34 @@
                     <c:v>Semester1 Week2</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>Semester1 Week2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>Semester1 Week3</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
+                    <c:v>Semester1 Week3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>Semester1 Week4</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
+                    <c:v>Semester1 Week6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v>Semester1 Week7</c:v>
                   </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Semester1 Week9</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>Semester1 Week10</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="9">
                     <c:v>Semester1 Week10</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-519F-4A21-A277-0CC0803C2074}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1828,9 +1401,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -1857,31 +1427,37 @@
             <c:numRef>
               <c:f>'Project Timeline'!$B$17:$B$27</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43155</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43161</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>43168</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>43175</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>43196</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
-                  <c:v>43210</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
-                  <c:v>43213</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
-                  <c:v>43217</c:v>
+                <c:pt idx="2">
+                  <c:v>43162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43187</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1920,6 +1496,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-519F-4A21-A277-0CC0803C2074}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1930,7 +1511,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="717044104"/>
         <c:axId val="717044496"/>
       </c:lineChart>
@@ -1938,6 +1519,7 @@
         <c:axId val="717044104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="43228"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1970,6 +1552,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="717044496"/>
@@ -1993,22 +1576,6 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="717044104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -2024,22 +1591,6 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="717044888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -2058,22 +1609,6 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="717045280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
@@ -2110,6 +1645,7 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2588,7 +2124,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2602,14 +2138,14 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="11" name="Project Timeline" descr="Line chart that plots each milestone on the corresponding timeframe"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="635" y="790575"/>
-        <a:ext cx="10678795" cy="3543300"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2640,7 +2176,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2934,492 +2470,507 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18333333333333" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.81666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5416666666667" style="13" customWidth="1"/>
-    <col min="3" max="3" width="30.5416666666667" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="14" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.2666666666667" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.5416666666667" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2666666666667" style="1" customWidth="1"/>
-    <col min="8" max="11" width="9.18333333333333" style="1"/>
-    <col min="12" max="12" width="11.8166666666667" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.18333333333333" style="16"/>
+    <col min="5" max="5" width="12.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="11.85546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="54" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="54" customHeight="1">
       <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-    </row>
-    <row r="2" ht="19.5" customHeight="1" spans="2:12">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" spans="2:12">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-    </row>
-    <row r="4" ht="19.5" customHeight="1" spans="2:12">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-    </row>
-    <row r="5" ht="19.5" customHeight="1" spans="2:12">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-    </row>
-    <row r="6" ht="19.5" customHeight="1" spans="2:12">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-    </row>
-    <row r="7" ht="19.5" customHeight="1" spans="2:12">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-    </row>
-    <row r="8" ht="19.5" customHeight="1" spans="2:12">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-    </row>
-    <row r="9" ht="19.5" customHeight="1" spans="2:12">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-    </row>
-    <row r="10" ht="19.5" customHeight="1" spans="2:12">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-    </row>
-    <row r="11" ht="19.5" customHeight="1" spans="2:12">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-    </row>
-    <row r="12" ht="19.5" customHeight="1" spans="2:12">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" ht="19.5" customHeight="1" spans="2:12">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" ht="45" customHeight="1" spans="2:12">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" s="12" customFormat="1" ht="42.75" customHeight="1" spans="1:12">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+    </row>
+    <row r="3" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+    </row>
+    <row r="4" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+    </row>
+    <row r="7" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+    </row>
+    <row r="10" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+    </row>
+    <row r="11" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+    </row>
+    <row r="12" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+    </row>
+    <row r="13" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+    </row>
+    <row r="14" spans="1:12" ht="45" customHeight="1">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+    </row>
+    <row r="15" spans="1:12" s="12" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="23"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="23"/>
-    </row>
-    <row r="16" customHeight="1" spans="2:12">
-      <c r="B16" s="27" t="s">
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1">
+      <c r="B16" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="43"/>
-    </row>
-    <row r="17" customHeight="1" spans="2:12">
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="38"/>
+      <c r="L16" s="38"/>
+    </row>
+    <row r="17" spans="2:12" ht="30" customHeight="1">
       <c r="B17" s="2">
         <f ca="1">DATE(YEAR(TODAY()),2,24)</f>
         <v>43155</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="30" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="5">
         <v>20</v>
       </c>
-      <c r="F17" s="35">
-        <f t="shared" ref="F17:F29" si="0">0</f>
+      <c r="F17" s="31">
+        <f t="shared" ref="F17:F22" si="0">0</f>
         <v>0</v>
       </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" customHeight="1" spans="2:12">
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+    </row>
+    <row r="18" spans="2:12" ht="30" customHeight="1">
       <c r="B18" s="2">
         <f ca="1">DATE(YEAR(TODAY()),3,2)</f>
         <v>43161</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="32" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="5">
         <v>10</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" customHeight="1" spans="2:12">
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+    </row>
+    <row r="19" spans="2:12" ht="30" customHeight="1">
       <c r="B19" s="2">
-        <f ca="1">DATE(YEAR(TODAY()),3,9)</f>
-        <v>43168</v>
-      </c>
-      <c r="C19" s="33" t="s">
+        <f ca="1">DATE(YEAR(TODAY()),3,3)</f>
+        <v>43162</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="37" t="s">
-        <v>11</v>
+      <c r="D19" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="E19" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F19" s="35">
+        <v>-5</v>
+      </c>
+      <c r="F19" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-    </row>
-    <row r="20" customHeight="1" spans="2:12">
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+    </row>
+    <row r="20" spans="2:12" ht="30" customHeight="1">
       <c r="B20" s="2">
-        <f ca="1">DATE(YEAR(TODAY()),3,16)</f>
-        <v>43175</v>
-      </c>
-      <c r="C20" s="33" t="s">
+        <f ca="1">DATE(YEAR(TODAY()),3,6)</f>
+        <v>43165</v>
+      </c>
+      <c r="C20" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>13</v>
+      <c r="D20" s="32" t="s">
+        <v>11</v>
       </c>
       <c r="E20" s="5">
         <v>25</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-    </row>
-    <row r="21" customHeight="1" spans="2:12">
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+    </row>
+    <row r="21" spans="2:12" ht="30" customHeight="1">
       <c r="B21" s="2">
-        <f ca="1">DATE(YEAR(TODAY()),4,6)</f>
-        <v>43196</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>15</v>
+        <f ca="1">DATE(YEAR(TODAY()),3,8)</f>
+        <v>43167</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>11</v>
       </c>
       <c r="E21" s="5">
         <v>-15</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-    </row>
-    <row r="22" customHeight="1" spans="2:12">
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+    </row>
+    <row r="22" spans="2:12" ht="30" customHeight="1">
       <c r="B22" s="2">
-        <f ca="1">DATE(YEAR(TODAY()),4,20)</f>
-        <v>43210</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>17</v>
+        <f ca="1">DATE(YEAR(TODAY()),3,14)</f>
+        <v>43173</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>13</v>
       </c>
       <c r="E22" s="5">
-        <v>25</v>
-      </c>
-      <c r="F22" s="35">
+        <v>15</v>
+      </c>
+      <c r="F22" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-    </row>
-    <row r="23" customHeight="1" spans="2:12">
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+    </row>
+    <row r="23" spans="2:12" ht="30" customHeight="1">
       <c r="B23" s="2">
-        <f ca="1">DATE(YEAR(TODAY()),4,23)</f>
-        <v>43213</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>19</v>
+        <f ca="1">DATE(YEAR(TODAY()),3,28)</f>
+        <v>43187</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="E23" s="5">
         <f>-10</f>
         <v>-10</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="34">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-    </row>
-    <row r="24" customHeight="1" spans="2:6">
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+    </row>
+    <row r="24" spans="2:12" ht="30" customHeight="1">
       <c r="B24" s="2">
-        <f ca="1">DATE(YEAR(TODAY()),4,27)</f>
-        <v>43217</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>19</v>
+        <f ca="1">DATE(YEAR(TODAY()),4,18)</f>
+        <v>43208</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="E24" s="5">
         <v>15</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="34">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="2:8">
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="40"/>
-    </row>
-    <row r="26" customHeight="1" spans="2:8">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="41"/>
-    </row>
-    <row r="27" customHeight="1" spans="2:7">
+    <row r="25" spans="2:12" ht="30" customHeight="1">
+      <c r="B25" s="2">
+        <f ca="1">DATE(YEAR(TODAY()),4,30)</f>
+        <v>43220</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="5">
+        <v>-15</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="H25" s="35"/>
+    </row>
+    <row r="26" spans="2:12" ht="30" customHeight="1">
+      <c r="B26" s="2">
+        <f ca="1">DATE(YEAR(TODAY()),5,3)</f>
+        <v>43223</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="5">
+        <v>15</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="H26" s="36"/>
+    </row>
+    <row r="27" spans="2:12" ht="30" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="41"/>
-    </row>
-    <row r="28" customHeight="1" spans="2:6">
+      <c r="F27" s="34"/>
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="2:12" ht="30" customHeight="1">
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="39"/>
-    </row>
-    <row r="29" customHeight="1" spans="2:5">
+      <c r="F28" s="34"/>
+    </row>
+    <row r="29" spans="2:12" ht="30" customHeight="1">
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" customHeight="1" spans="2:6">
+    <row r="30" spans="2:12" ht="30" customHeight="1">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="42"/>
-    </row>
-    <row r="31" customHeight="1" spans="2:5">
+      <c r="F30" s="37"/>
+    </row>
+    <row r="31" spans="2:12" ht="30" customHeight="1">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
@@ -3443,8 +2994,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project Timeline Tip is in cell below" sqref="H16:I16"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" scale="85" orientation="landscape"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="85" orientation="landscape"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -3456,130 +3007,128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E7"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="54" spans="1:5">
+    <row r="1" spans="1:5" ht="60">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <f ca="1">DATE(YEAR(TODAY()),7,20)</f>
         <v>43301</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:5">
+    <row r="2" spans="1:5" ht="45">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
         <f ca="1">DATE(YEAR(TODAY()),7,27)</f>
         <v>43308</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E2" s="6">
         <v>-15</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="1:5">
+    <row r="3" spans="1:5" ht="45">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
         <f ca="1">DATE(YEAR(TODAY()),8,3)</f>
         <v>43315</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="40.5" spans="1:5">
+    <row r="4" spans="1:5" ht="45">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <f ca="1">DATE(YEAR(TODAY()),8,24)</f>
         <v>43336</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:5">
+    <row r="5" spans="1:5" ht="45">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <f ca="1">DATE(YEAR(TODAY()),8,31)</f>
         <v>43343</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5" s="6">
         <v>-15</v>
       </c>
     </row>
-    <row r="6" ht="40.5" spans="1:5">
+    <row r="6" spans="1:5" ht="45">
       <c r="A6" s="1"/>
       <c r="B6" s="7">
         <f ca="1">DATE(YEAR(TODAY()),9,14)</f>
         <v>43357</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="27" spans="1:5">
+    <row r="7" spans="1:5" ht="45">
       <c r="A7" s="1"/>
       <c r="B7" s="7">
         <f ca="1">DATE(YEAR(TODAY()),9,21)</f>
         <v>43364</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E7" s="10">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/Docs/milestone.xlsx
+++ b/Docs/milestone.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u6118739\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Project Timeline" sheetId="1" r:id="rId1"/>
@@ -20,12 +15,12 @@
     <definedName name="ProjectEnd">'Project Timeline'!#REF!</definedName>
     <definedName name="ProjectStart">'Project Timeline'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>Project Milestones</t>
   </si>
@@ -60,28 +55,49 @@
     <t>Initial Requirement Analysis</t>
   </si>
   <si>
+    <t>Preliminary Design</t>
+  </si>
+  <si>
     <t>Semester1 Week3</t>
   </si>
   <si>
-    <t>Preliminary Design</t>
+    <t>Design Approval</t>
+  </si>
+  <si>
+    <t>Preliminary Front-end prototype</t>
   </si>
   <si>
     <t>Semester1 Week4</t>
   </si>
   <si>
+    <t>First Deliverable</t>
+  </si>
+  <si>
+    <t>Semester1 Week6</t>
+  </si>
+  <si>
+    <t>Second Deliverable</t>
+  </si>
+  <si>
     <t>Semester1 Week7</t>
   </si>
   <si>
-    <t>Unit Test Finish</t>
+    <t>Final prototype</t>
   </si>
   <si>
     <t>Semester1 Week10</t>
+  </si>
+  <si>
+    <t>Showcase</t>
   </si>
   <si>
     <t>Web Development Finish</t>
   </si>
   <si>
     <t>Semester2 Week1</t>
+  </si>
+  <si>
+    <t>Unit Test Finish</t>
   </si>
   <si>
     <t>Semester2 Week2</t>
@@ -116,83 +132,68 @@
   <si>
     <t>Semester2 Week10</t>
   </si>
-  <si>
-    <t>Design Approval</t>
-  </si>
-  <si>
-    <t>Preliminary Front-end prototype</t>
-  </si>
-  <si>
-    <t>First Deliverable</t>
-  </si>
-  <si>
-    <t>Semester1 Week6</t>
-  </si>
-  <si>
-    <t>Second Deliverable</t>
-  </si>
-  <si>
-    <t>Final prototype</t>
-  </si>
-  <si>
-    <t>Showcase</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="28"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="28"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -203,40 +204,163 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
-      <color theme="3" tint="0.39991454817346722"/>
-      <name val="Calibri"/>
+      <color theme="3" tint="0.399914548173467"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="28"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="major"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -252,12 +376,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -276,37 +586,273 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -315,7 +861,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -333,67 +879,55 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -402,23 +936,57 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="1" builtinId="15"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -472,17 +1040,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -500,10 +1065,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9929808480165297E-2"/>
-          <c:y val="4.4802867383512503E-2"/>
-          <c:w val="0.87774435881027202"/>
-          <c:h val="0.92114695340501795"/>
+          <c:x val="0.0599298084801653"/>
+          <c:y val="0.0448028673835125"/>
+          <c:w val="0.877744358810272"/>
+          <c:h val="0.921146953405018"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -541,31 +1106,30 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.7163915818921903E-8"/>
-                  <c:y val="-8.2121881209074797E-18"/>
+                  <c:x val="4.71639158189219e-8"/>
+                  <c:y val="-8.21218812090748e-18"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E548EC9F-1ED8-4274-8EC5-8FA039CDFB56}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
+                    <a:fld id="{2ccf9474-1878-4adf-8c80-4837d60be433}" type="CELLRANGE">
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{F3A19908-B1F9-4AD7-AF11-65B656A7CC5C}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
+                    <a:fld id="{7c5fe04b-20f5-46cf-98f5-e4d6cf1544f3}" type="CATEGORYNAME">
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-US" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:cs typeface="+mn-ea"/>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -584,40 +1148,36 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-519F-4A21-A277-0CC0803C2074}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.71639158093134E-8"/>
+                  <c:x val="4.71639158093134e-8"/>
                   <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08550AE9-89B1-4DDA-B266-7AFE3DE95A36}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
+                    <a:fld id="{1c68a450-0870-47e5-b1bb-a06b56ed443d}" type="CELLRANGE">
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{A91D8513-47B5-439B-B138-A62A6A5FAD2B}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
+                    <a:fld id="{ffcf89c6-4262-468d-8649-7da70c2e87bb}" type="CATEGORYNAME">
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-US" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:cs typeface="+mn-ea"/>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -636,40 +1196,36 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-519F-4A21-A277-0CC0803C2074}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.71639158093134E-8"/>
+                  <c:x val="4.71639158093134e-8"/>
                   <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{68FE3985-8345-4F2D-9F01-544234817145}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
+                    <a:fld id="{7beabe04-ce7e-4e04-aeff-1c8e0c2aeae9}" type="CELLRANGE">
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{EBC6266C-E330-4962-B188-D618B3E13E89}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
+                    <a:fld id="{fe3970c2-7939-4ad7-88aa-10a611f970bd}" type="CATEGORYNAME">
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-US" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:cs typeface="+mn-ea"/>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -688,40 +1244,36 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-519F-4A21-A277-0CC0803C2074}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.7163915820294599E-8"/>
-                  <c:y val="-3.28487524836299E-17"/>
+                  <c:x val="4.71639158202946e-8"/>
+                  <c:y val="-3.28487524836299e-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38800C07-F0B3-4B97-BA8E-BC82807CFF13}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
+                    <a:fld id="{c8dae5ee-db0e-4f1e-9f1a-3ad7cee3d9d0}" type="CELLRANGE">
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{6781C7F3-54FC-428A-9732-E2C42CF8B6DC}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
+                    <a:fld id="{afb5a784-2d3d-41fb-8bab-c74cc0e03455}" type="CATEGORYNAME">
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-US" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:cs typeface="+mn-ea"/>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -740,40 +1292,36 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-519F-4A21-A277-0CC0803C2074}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.7163915820294599E-8"/>
-                  <c:y val="1.3139500993452E-16"/>
+                  <c:x val="4.71639158202946e-8"/>
+                  <c:y val="1.3139500993452e-16"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5D539CE-AD55-4958-B97A-DDA0EF584F7D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
+                    <a:fld id="{ba765bb7-621b-4654-8fd4-f2b4be1143e4}" type="CELLRANGE">
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{8660BB96-1086-485F-BF6B-0E8D37B37E88}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
+                    <a:fld id="{25be3eba-3a4a-40d9-b08e-be23c62e71c4}" type="CATEGORYNAME">
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-US" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:cs typeface="+mn-ea"/>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -792,40 +1340,36 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-519F-4A21-A277-0CC0803C2074}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.7163915820294599E-8"/>
-                  <c:y val="-3.28487524836299E-17"/>
+                  <c:x val="4.71639158202946e-8"/>
+                  <c:y val="-3.28487524836299e-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{662CCC29-2BE1-4C05-8CC8-0029C749C399}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
+                    <a:fld id="{13365714-58eb-4dde-9bb7-0d03801e90e4}" type="CELLRANGE">
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{694E4EBD-0BD5-41F2-9A4F-11728CAD0312}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
+                    <a:fld id="{2cba89ed-772f-46c2-9725-e496bc4ca872}" type="CATEGORYNAME">
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-US" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:cs typeface="+mn-ea"/>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -844,40 +1388,36 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-519F-4A21-A277-0CC0803C2074}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.7163915820294599E-8"/>
-                  <c:y val="1.3139500993452E-16"/>
+                  <c:x val="4.71639158202946e-8"/>
+                  <c:y val="1.3139500993452e-16"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2A43AB7-EFFA-4EC5-BBAF-5C852F595A10}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
+                    <a:fld id="{8456fa66-ddcc-4742-b41b-cacf395573cc}" type="CELLRANGE">
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{03F9183C-F1D7-4064-AF63-BB6DB1F76BCC}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
+                    <a:fld id="{a3e1fd0b-5bf4-4c5b-86b1-00217a73a8f0}" type="CATEGORYNAME">
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-US" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:cs typeface="+mn-ea"/>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -896,40 +1436,36 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-519F-4A21-A277-0CC0803C2074}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.7163915820294599E-8"/>
-                  <c:y val="-3.28487524836299E-17"/>
+                  <c:x val="4.71639158202946e-8"/>
+                  <c:y val="-3.28487524836299e-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67BB436D-252D-44D3-8A66-C2423E20A13D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
+                    <a:fld id="{65e14031-ff9b-4bda-b5de-3dae0389d22a}" type="CELLRANGE">
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{A3BD66D6-0D51-43D0-AB46-5A37B928E274}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
+                    <a:fld id="{f12b93b8-a1cd-4506-9f9e-1cf4f618d5b2}" type="CATEGORYNAME">
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-US" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:cs typeface="+mn-ea"/>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -948,58 +1484,36 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-519F-4A21-A277-0CC0803C2074}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.7163915820294599E-8"/>
+                  <c:x val="4.71639158202946e-8"/>
                   <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{378CFAAB-1510-466C-B054-3C2406066804}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
+                    <a:fld id="{30cdc25b-819d-496e-89ca-6ac3b4a11aa7}" type="CELLRANGE">
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{326EDD2A-A27A-4656-B193-2EB9B3CFF5E7}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
+                    <a:fld id="{0b2c7adc-5d2c-4765-8c3b-6061df30891b}" type="CATEGORYNAME">
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                  <a:p>
-                    <a:fld id="{16439DDA-B820-46E3-9BF3-492BD1931343}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>
-</a:t>
-                    </a:r>
-                    <a:fld id="{AC6F246B-E41D-48AD-AD46-9E41AB594AB3}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CATEGORY NAME]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-US" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:cs typeface="+mn-ea"/>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1018,58 +1532,36 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-519F-4A21-A277-0CC0803C2074}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.7163915820294599E-8"/>
-                  <c:y val="-1.6424376241814999E-17"/>
+                  <c:x val="4.71639158202946e-8"/>
+                  <c:y val="-1.6424376241815e-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24254BC2-ACE1-42C2-992C-71FFAEB4E6F5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
+                    <a:fld id="{ec4895d6-125d-4168-91b7-d731208b6d8d}" type="CELLRANGE">
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US"/>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{7563D612-78FA-40C4-80E5-CEE87D022849}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
+                    <a:fld id="{8cb80b9f-bdba-478f-9e22-d88cf0102979}" type="CATEGORYNAME">
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                  <a:p>
-                    <a:fld id="{DB5F89BC-602B-4FD8-841C-B8E83E848B78}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>
-</a:t>
-                    </a:r>
-                    <a:fld id="{F79F3713-2BCE-44EA-959B-1145BA883512}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CATEGORY NAME]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-US" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:cs typeface="+mn-ea"/>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1088,56 +1580,48 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-519F-4A21-A277-0CC0803C2074}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.7163915908144198E-8"/>
-                  <c:y val="1.3139500993452E-16"/>
+                  <c:x val="4.71639159081442e-8"/>
+                  <c:y val="1.3139500993452e-16"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB4F570B-C2CD-45B5-8007-1A0488D07584}" type="CELLRANGE">
-                      <a:rPr lang="en-AU"/>
-                      <a:pPr/>
+                    <a:fld id="{e0e7b312-d10b-4173-af8f-a29e5fff3047}" type="CELLRANGE">
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{57A200C6-12D9-48F3-A28C-64B847F553E6}" type="CATEGORYNAME">
-                      <a:rPr lang="en-AU"/>
-                      <a:pPr/>
+                    <a:fld id="{b411832b-147c-4b0f-87b7-22fd98077b18}" type="CATEGORYNAME">
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr/>
                   </a:p>
                   <a:p>
-                    <a:fld id="{23ED5F18-2C36-4AB9-B7B7-5FA4AE293411}" type="CELLRANGE">
-                      <a:rPr lang="en-AU"/>
-                      <a:pPr/>
+                    <a:fld id="{fdf59252-7307-409b-9e31-2ecb51acca73}" type="CELLRANGE">
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{05A703B4-B679-4801-A481-468F0309A806}" type="CATEGORYNAME">
-                      <a:rPr lang="en-AU"/>
-                      <a:pPr/>
+                    <a:fld id="{7bec34f2-2089-4b0e-ab09-5d77133fbadc}" type="CATEGORYNAME">
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr/>
+                    <a:endParaRPr lang="en-AU" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:cs typeface="+mn-ea"/>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1152,11 +1636,9 @@
 </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-519F-4A21-A277-0CC0803C2074}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1181,7 +1663,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1196,8 +1677,21 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="0"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:prstDash val="solid"/>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1226,7 +1720,7 @@
             <c:strRef>
               <c:f>'Project Timeline'!$C$17:$C$27</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Bootcamp</c:v>
                 </c:pt>
@@ -1338,9 +1832,6 @@
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
             </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-519F-4A21-A277-0CC0803C2074}"/>
-            </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
@@ -1401,6 +1892,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -1427,36 +1921,36 @@
             <c:numRef>
               <c:f>'Project Timeline'!$B$17:$B$27</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>43155</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>43161</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>43162</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
                   <c:v>43165</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
                   <c:v>43167</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
                   <c:v>43173</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>43187</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
                   <c:v>43208</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
                   <c:v>43220</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
                   <c:v>43223</c:v>
                 </c:pt>
               </c:numCache>
@@ -1496,11 +1990,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-519F-4A21-A277-0CC0803C2074}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1511,7 +2000,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:smooth val="1"/>
         <c:axId val="717044104"/>
         <c:axId val="717044496"/>
       </c:lineChart>
@@ -1552,7 +2041,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="717044496"/>
@@ -1576,6 +2064,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="717044104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1591,6 +2095,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="717044888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1609,6 +2129,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="717045280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
@@ -1645,7 +2181,6 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2124,7 +2659,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2138,14 +2673,14 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="11" name="Project Timeline" descr="Line chart that plots each milestone on the corresponding timeframe"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="635" y="790575"/>
+        <a:ext cx="10675620" cy="3543300"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2176,7 +2711,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2189,7 +2724,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10252075" y="2257425"/>
+          <a:off x="10248900" y="2257425"/>
           <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2470,507 +3005,492 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.85833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5666666666667" style="13" customWidth="1"/>
+    <col min="3" max="3" width="30.5666666666667" style="14" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="11.85546875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="16"/>
+    <col min="5" max="5" width="12.2833333333333" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.5666666666667" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2833333333333" style="1" customWidth="1"/>
+    <col min="8" max="11" width="9.14166666666667" style="1"/>
+    <col min="12" max="12" width="11.8583333333333" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="54" customHeight="1">
-      <c r="A1" s="17"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
+    <row r="1" s="11" customFormat="1" ht="54" customHeight="1" spans="1:4">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-    </row>
-    <row r="2" spans="1:12" ht="19.5" customHeight="1">
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-    </row>
-    <row r="3" spans="1:12" ht="19.5" customHeight="1">
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-    </row>
-    <row r="4" spans="1:12" ht="19.5" customHeight="1">
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-    </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1">
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-    </row>
-    <row r="6" spans="1:12" ht="19.5" customHeight="1">
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-    </row>
-    <row r="7" spans="1:12" ht="19.5" customHeight="1">
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-    </row>
-    <row r="8" spans="1:12" ht="19.5" customHeight="1">
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-    </row>
-    <row r="9" spans="1:12" ht="19.5" customHeight="1">
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-    </row>
-    <row r="10" spans="1:12" ht="19.5" customHeight="1">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-    </row>
-    <row r="11" spans="1:12" ht="19.5" customHeight="1">
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-    </row>
-    <row r="12" spans="1:12" ht="19.5" customHeight="1">
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-    </row>
-    <row r="13" spans="1:12" ht="19.5" customHeight="1">
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-    </row>
-    <row r="14" spans="1:12" ht="45" customHeight="1">
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-    </row>
-    <row r="15" spans="1:12" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21" t="s">
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="2:12">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="2:12">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" ht="19.5" customHeight="1" spans="2:12">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" ht="19.5" customHeight="1" spans="2:12">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" ht="19.5" customHeight="1" spans="2:12">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" ht="19.5" customHeight="1" spans="2:12">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" spans="2:12">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" ht="19.5" customHeight="1" spans="2:12">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" ht="19.5" customHeight="1" spans="2:12">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" ht="19.5" customHeight="1" spans="2:12">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" ht="19.5" customHeight="1" spans="2:12">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" ht="19.5" customHeight="1" spans="2:12">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" ht="45" customHeight="1" spans="2:12">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" s="12" customFormat="1" ht="42.75" customHeight="1" spans="2:11">
+      <c r="B15" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="20"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="20"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1">
-      <c r="B16" s="24" t="s">
+    </row>
+    <row r="16" customHeight="1" spans="2:12">
+      <c r="B16" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="38"/>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="17" spans="2:12" ht="30" customHeight="1">
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="34"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:12">
       <c r="B17" s="2">
         <f ca="1">DATE(YEAR(TODAY()),2,24)</f>
         <v>43155</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="5">
         <v>20</v>
       </c>
-      <c r="F17" s="31">
-        <f t="shared" ref="F17:F22" si="0">0</f>
+      <c r="F17" s="11">
+        <f t="shared" ref="F17:F24" si="0">0</f>
         <v>0</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-    </row>
-    <row r="18" spans="2:12" ht="30" customHeight="1">
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" customHeight="1" spans="2:12">
       <c r="B18" s="2">
         <f ca="1">DATE(YEAR(TODAY()),3,2)</f>
         <v>43161</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="5">
         <v>10</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-    </row>
-    <row r="19" spans="2:12" ht="30" customHeight="1">
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:12">
       <c r="B19" s="2">
         <f ca="1">DATE(YEAR(TODAY()),3,3)</f>
         <v>43162</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="5">
         <v>-5</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-    </row>
-    <row r="20" spans="2:12" ht="30" customHeight="1">
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" customHeight="1" spans="2:12">
       <c r="B20" s="2">
         <f ca="1">DATE(YEAR(TODAY()),3,6)</f>
         <v>43165</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>11</v>
       </c>
       <c r="E20" s="5">
         <v>25</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-    </row>
-    <row r="21" spans="2:12" ht="30" customHeight="1">
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+    </row>
+    <row r="21" customHeight="1" spans="2:12">
       <c r="B21" s="2">
         <f ca="1">DATE(YEAR(TODAY()),3,8)</f>
         <v>43167</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>11</v>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E21" s="5">
         <v>-15</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-    </row>
-    <row r="22" spans="2:12" ht="30" customHeight="1">
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" customHeight="1" spans="2:12">
       <c r="B22" s="2">
         <f ca="1">DATE(YEAR(TODAY()),3,14)</f>
         <v>43173</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>13</v>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E22" s="5">
         <v>15</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-    </row>
-    <row r="23" spans="2:12" ht="30" customHeight="1">
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+    </row>
+    <row r="23" customHeight="1" spans="2:12">
       <c r="B23" s="2">
         <f ca="1">DATE(YEAR(TODAY()),3,28)</f>
         <v>43187</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>33</v>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E23" s="5">
         <f>-10</f>
         <v>-10</v>
       </c>
-      <c r="F23" s="34">
-        <f>0</f>
+      <c r="F23" s="30">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-    </row>
-    <row r="24" spans="2:12" ht="30" customHeight="1">
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:6">
       <c r="B24" s="2">
         <f ca="1">DATE(YEAR(TODAY()),4,18)</f>
         <v>43208</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>14</v>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E24" s="5">
         <v>15</v>
       </c>
-      <c r="F24" s="34">
-        <f>0</f>
+      <c r="F24" s="30">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="30" customHeight="1">
+    <row r="25" customHeight="1" spans="2:8">
       <c r="B25" s="2">
         <f ca="1">DATE(YEAR(TODAY()),4,30)</f>
         <v>43220</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>16</v>
+      <c r="C25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E25" s="5">
         <v>-15</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="H25" s="35"/>
-    </row>
-    <row r="26" spans="2:12" ht="30" customHeight="1">
+      <c r="F25" s="30"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" customHeight="1" spans="2:8">
       <c r="B26" s="2">
         <f ca="1">DATE(YEAR(TODAY()),5,3)</f>
         <v>43223</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>16</v>
+      <c r="C26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E26" s="5">
         <v>15</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="H26" s="36"/>
-    </row>
-    <row r="27" spans="2:12" ht="30" customHeight="1">
+      <c r="F26" s="30"/>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:7">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" spans="2:12" ht="30" customHeight="1">
+      <c r="F27" s="30"/>
+      <c r="G27" s="32"/>
+    </row>
+    <row r="28" customHeight="1" spans="2:6">
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="34"/>
-    </row>
-    <row r="29" spans="2:12" ht="30" customHeight="1">
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:5">
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="2:12" ht="30" customHeight="1">
+    <row r="30" customHeight="1" spans="2:6">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="37"/>
-    </row>
-    <row r="31" spans="2:12" ht="30" customHeight="1">
+      <c r="F30" s="33"/>
+    </row>
+    <row r="31" customHeight="1" spans="2:5">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
@@ -2994,8 +3514,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project Timeline Tip is in cell below" sqref="H16:I16"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="85" orientation="landscape"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" scale="85" orientation="landscape"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -3007,128 +3527,130 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="A1" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="60">
+    <row r="1" ht="54" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <f ca="1">DATE(YEAR(TODAY()),7,20)</f>
         <v>43301</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E1" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45">
+    <row r="2" ht="40.5" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
         <f ca="1">DATE(YEAR(TODAY()),7,27)</f>
         <v>43308</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" s="6">
         <v>-15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45">
+    <row r="3" ht="40.5" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
         <f ca="1">DATE(YEAR(TODAY()),8,3)</f>
         <v>43315</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E3" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45">
+    <row r="4" ht="40.5" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <f ca="1">DATE(YEAR(TODAY()),8,24)</f>
         <v>43336</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E4" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45">
+    <row r="5" ht="27" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <f ca="1">DATE(YEAR(TODAY()),8,31)</f>
         <v>43343</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E5" s="6">
         <v>-15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45">
+    <row r="6" ht="27" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="7">
         <f ca="1">DATE(YEAR(TODAY()),9,14)</f>
         <v>43357</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E6" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45">
+    <row r="7" ht="27" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="7">
         <f ca="1">DATE(YEAR(TODAY()),9,21)</f>
         <v>43364</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E7" s="10">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>